--- a/others/zfb/code/__encodeapk/8个客户.xlsx
+++ b/others/zfb/code/__encodeapk/8个客户.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jj/Documents/个人/Project/code/Finance-master-local/others/zfb/code/__encodeapk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C7E6EE-6E5A-0C46-A526-FD4F5CA3048D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D86EA3-BE3E-B84C-805A-5CE440ABA57F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="7700" windowWidth="18620" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8640" yWindow="7700" windowWidth="18620" windowHeight="16280" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (8)" sheetId="8" r:id="rId1"/>
@@ -110,13 +110,7 @@
     <t>中国航天汽车有限责任公司</t>
   </si>
   <si>
-    <t>刘玉玲</t>
-  </si>
-  <si>
     <t>GJJ004553073</t>
-  </si>
-  <si>
-    <t>中海油能源发展有限公司</t>
   </si>
   <si>
     <t>海淀管理部</t>
@@ -179,6 +173,12 @@
     <t>晴 27℃</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>周广芹</t>
+  </si>
+  <si>
+    <t>北京城市排水集团有限责任公司</t>
+  </si>
 </sst>
 </file>
 
@@ -188,7 +188,7 @@
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +224,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -253,7 +259,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -294,6 +300,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -573,7 +582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -616,10 +625,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L1"/>
       <c r="M1"/>
@@ -663,7 +672,7 @@
         <v>2020-09-16</v>
       </c>
       <c r="M2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -676,7 +685,7 @@
         <v>2020-09-17</v>
       </c>
       <c r="M3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -689,7 +698,7 @@
         <v>2020-09-18</v>
       </c>
       <c r="M4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -708,7 +717,7 @@
         <v>2020-09-19</v>
       </c>
       <c r="M5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -727,7 +736,7 @@
         <v>2020-09-20</v>
       </c>
       <c r="M6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -741,7 +750,7 @@
         <v>4512</v>
       </c>
       <c r="D7" s="7" t="str">
-        <f t="shared" ref="D7:D20" si="1">TEXT(A7,"mm-dd")</f>
+        <f t="shared" ref="D7:D17" si="1">TEXT(A7,"mm-dd")</f>
         <v>01-21</v>
       </c>
       <c r="J7" s="11"/>
@@ -753,7 +762,7 @@
         <v>2020-09-21</v>
       </c>
       <c r="M7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -779,7 +788,7 @@
         <v>2020-09-22</v>
       </c>
       <c r="M8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -805,7 +814,7 @@
         <v>2020-09-23</v>
       </c>
       <c r="M9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -831,7 +840,7 @@
         <v>2020-09-24</v>
       </c>
       <c r="M10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -857,7 +866,7 @@
         <v>2020-09-25</v>
       </c>
       <c r="M11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -886,7 +895,7 @@
         <v>2020-09-26</v>
       </c>
       <c r="M12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -915,7 +924,7 @@
         <v>2020-09-27</v>
       </c>
       <c r="M13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -941,7 +950,7 @@
         <v>2020-09-28</v>
       </c>
       <c r="M14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -949,7 +958,7 @@
         <v>44032</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15" s="6">
         <v>4500</v>
@@ -1161,7 +1170,7 @@
         <v>43699</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C34" s="7">
         <v>218932.13200000001</v>
@@ -1876,7 +1885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1:M14"/>
     </sheetView>
   </sheetViews>
@@ -1919,10 +1928,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L1"/>
       <c r="M1"/>
@@ -1966,7 +1975,7 @@
         <v>2020-09-16</v>
       </c>
       <c r="M2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1979,7 +1988,7 @@
         <v>2020-09-17</v>
       </c>
       <c r="M3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1992,7 +2001,7 @@
         <v>2020-09-18</v>
       </c>
       <c r="M4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2011,7 +2020,7 @@
         <v>2020-09-19</v>
       </c>
       <c r="M5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2030,7 +2039,7 @@
         <v>2020-09-20</v>
       </c>
       <c r="M6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2056,7 +2065,7 @@
         <v>2020-09-21</v>
       </c>
       <c r="M7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2082,7 +2091,7 @@
         <v>2020-09-22</v>
       </c>
       <c r="M8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2108,7 +2117,7 @@
         <v>2020-09-23</v>
       </c>
       <c r="M9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2134,7 +2143,7 @@
         <v>2020-09-24</v>
       </c>
       <c r="M10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2160,7 +2169,7 @@
         <v>2020-09-25</v>
       </c>
       <c r="M11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2186,7 +2195,7 @@
         <v>2020-09-26</v>
       </c>
       <c r="M12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -2212,7 +2221,7 @@
         <v>2020-09-27</v>
       </c>
       <c r="M13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -2241,7 +2250,7 @@
         <v>2020-09-28</v>
       </c>
       <c r="M14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -2733,7 +2742,7 @@
         <v>43395</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C54" s="7">
         <v>185685.07500000001</v>
@@ -3209,7 +3218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17:D19"/>
     </sheetView>
   </sheetViews>
@@ -3252,10 +3261,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L1"/>
       <c r="M1"/>
@@ -3299,7 +3308,7 @@
         <v>2020-09-16</v>
       </c>
       <c r="M2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3312,7 +3321,7 @@
         <v>2020-09-17</v>
       </c>
       <c r="M3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3325,7 +3334,7 @@
         <v>2020-09-18</v>
       </c>
       <c r="M4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3344,7 +3353,7 @@
         <v>2020-09-19</v>
       </c>
       <c r="M5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3363,7 +3372,7 @@
         <v>2020-09-20</v>
       </c>
       <c r="M6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3377,7 +3386,7 @@
         <v>4584</v>
       </c>
       <c r="D7" s="7" t="str">
-        <f t="shared" ref="D7:D19" si="1">TEXT(A7,"mm-dd")</f>
+        <f t="shared" ref="D7:D16" si="1">TEXT(A7,"mm-dd")</f>
         <v>01-10</v>
       </c>
       <c r="J7" s="11"/>
@@ -3389,7 +3398,7 @@
         <v>2020-09-21</v>
       </c>
       <c r="M7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3415,7 +3424,7 @@
         <v>2020-09-22</v>
       </c>
       <c r="M8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -3441,7 +3450,7 @@
         <v>2020-09-23</v>
       </c>
       <c r="M9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3467,7 +3476,7 @@
         <v>2020-09-24</v>
       </c>
       <c r="M10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3493,7 +3502,7 @@
         <v>2020-09-25</v>
       </c>
       <c r="M11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -3522,7 +3531,7 @@
         <v>2020-09-26</v>
       </c>
       <c r="M12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -3551,7 +3560,7 @@
         <v>2020-09-27</v>
       </c>
       <c r="M13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -3577,7 +3586,7 @@
         <v>2020-09-28</v>
       </c>
       <c r="M14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -4539,15 +4548,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" style="1"/>
     <col min="6" max="16384" width="11" style="1"/>
@@ -4582,26 +4591,26 @@
         <v>8</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L1"/>
       <c r="M1"/>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:13" ht="17">
+      <c r="A2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>29</v>
+      <c r="C2" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1">
         <v>17994</v>
@@ -4629,10 +4638,11 @@
         <v>2020-09-16</v>
       </c>
       <c r="M2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="17">
+      <c r="C3" s="14"/>
       <c r="J3" s="11"/>
       <c r="K3" s="13">
         <v>44091</v>
@@ -4642,7 +4652,7 @@
         <v>2020-09-17</v>
       </c>
       <c r="M3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -4655,7 +4665,7 @@
         <v>2020-09-18</v>
       </c>
       <c r="M4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -4674,7 +4684,7 @@
         <v>2020-09-19</v>
       </c>
       <c r="M5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -4693,7 +4703,7 @@
         <v>2020-09-20</v>
       </c>
       <c r="M6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -4707,7 +4717,7 @@
         <v>3432</v>
       </c>
       <c r="D7" s="7" t="str">
-        <f t="shared" ref="D7:D19" si="1">TEXT(A7,"mm-dd")</f>
+        <f t="shared" ref="D7:D16" si="1">TEXT(A7,"mm-dd")</f>
         <v>01-15</v>
       </c>
       <c r="J7" s="11"/>
@@ -4719,7 +4729,7 @@
         <v>2020-09-21</v>
       </c>
       <c r="M7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -4745,7 +4755,7 @@
         <v>2020-09-22</v>
       </c>
       <c r="M8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -4771,7 +4781,7 @@
         <v>2020-09-23</v>
       </c>
       <c r="M9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -4797,7 +4807,7 @@
         <v>2020-09-24</v>
       </c>
       <c r="M10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -4823,7 +4833,7 @@
         <v>2020-09-25</v>
       </c>
       <c r="M11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4852,7 +4862,7 @@
         <v>2020-09-26</v>
       </c>
       <c r="M12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -4881,7 +4891,7 @@
         <v>2020-09-27</v>
       </c>
       <c r="M13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -4907,7 +4917,7 @@
         <v>2020-09-28</v>
       </c>
       <c r="M14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -5016,7 +5026,7 @@
         <v>43546</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C27" s="7">
         <v>145446.769</v>
@@ -5870,26 +5880,26 @@
         <v>8</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L1"/>
       <c r="M1"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="E2" s="1">
         <v>18200</v>
@@ -5917,7 +5927,7 @@
         <v>2020-09-16</v>
       </c>
       <c r="M2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -5930,7 +5940,7 @@
         <v>2020-09-17</v>
       </c>
       <c r="M3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -5943,7 +5953,7 @@
         <v>2020-09-18</v>
       </c>
       <c r="M4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -5962,7 +5972,7 @@
         <v>2020-09-19</v>
       </c>
       <c r="M5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -5981,7 +5991,7 @@
         <v>2020-09-20</v>
       </c>
       <c r="M6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -5995,7 +6005,7 @@
         <v>3840</v>
       </c>
       <c r="D7" s="7" t="str">
-        <f t="shared" ref="D7:D21" si="1">TEXT(A7,"mm-dd")</f>
+        <f t="shared" ref="D7:D18" si="1">TEXT(A7,"mm-dd")</f>
         <v>01-18</v>
       </c>
       <c r="J7" s="11"/>
@@ -6007,7 +6017,7 @@
         <v>2020-09-21</v>
       </c>
       <c r="M7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -6033,7 +6043,7 @@
         <v>2020-09-22</v>
       </c>
       <c r="M8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -6059,7 +6069,7 @@
         <v>2020-09-23</v>
       </c>
       <c r="M9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -6085,7 +6095,7 @@
         <v>2020-09-24</v>
       </c>
       <c r="M10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -6111,7 +6121,7 @@
         <v>2020-09-25</v>
       </c>
       <c r="M11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -6137,7 +6147,7 @@
         <v>2020-09-26</v>
       </c>
       <c r="M12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -6163,7 +6173,7 @@
         <v>2020-09-27</v>
       </c>
       <c r="M13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -6192,7 +6202,7 @@
         <v>2020-09-28</v>
       </c>
       <c r="M14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -6684,7 +6694,7 @@
         <v>43364</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C54" s="7">
         <v>105385.79399999999</v>
@@ -7218,26 +7228,26 @@
         <v>8</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L1"/>
       <c r="M1"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="E2" s="1">
         <v>20100</v>
@@ -7265,7 +7275,7 @@
         <v>2020-09-16</v>
       </c>
       <c r="M2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -7278,7 +7288,7 @@
         <v>2020-09-17</v>
       </c>
       <c r="M3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -7291,7 +7301,7 @@
         <v>2020-09-18</v>
       </c>
       <c r="M4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -7310,7 +7320,7 @@
         <v>2020-09-19</v>
       </c>
       <c r="M5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -7329,7 +7339,7 @@
         <v>2020-09-20</v>
       </c>
       <c r="M6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -7343,7 +7353,7 @@
         <v>4152</v>
       </c>
       <c r="D7" s="7" t="str">
-        <f t="shared" ref="D7:D22" si="1">TEXT(A7,"mm-dd")</f>
+        <f t="shared" ref="D7:D19" si="1">TEXT(A7,"mm-dd")</f>
         <v>01-16</v>
       </c>
       <c r="J7" s="11"/>
@@ -7355,7 +7365,7 @@
         <v>2020-09-21</v>
       </c>
       <c r="M7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -7381,7 +7391,7 @@
         <v>2020-09-22</v>
       </c>
       <c r="M8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -7407,7 +7417,7 @@
         <v>2020-09-23</v>
       </c>
       <c r="M9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -7433,7 +7443,7 @@
         <v>2020-09-24</v>
       </c>
       <c r="M10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -7459,7 +7469,7 @@
         <v>2020-09-25</v>
       </c>
       <c r="M11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -7485,7 +7495,7 @@
         <v>2020-09-26</v>
       </c>
       <c r="M12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -7511,7 +7521,7 @@
         <v>2020-09-27</v>
       </c>
       <c r="M13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -7540,7 +7550,7 @@
         <v>2020-09-28</v>
       </c>
       <c r="M14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -8625,26 +8635,26 @@
         <v>8</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L1"/>
       <c r="M1"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1">
         <v>14100</v>
@@ -8672,7 +8682,7 @@
         <v>2020-09-16</v>
       </c>
       <c r="M2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -8685,7 +8695,7 @@
         <v>2020-09-17</v>
       </c>
       <c r="M3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -8698,7 +8708,7 @@
         <v>2020-09-18</v>
       </c>
       <c r="M4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -8717,7 +8727,7 @@
         <v>2020-09-19</v>
       </c>
       <c r="M5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -8736,7 +8746,7 @@
         <v>2020-09-20</v>
       </c>
       <c r="M6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -8750,7 +8760,7 @@
         <v>3192</v>
       </c>
       <c r="D7" s="7" t="str">
-        <f t="shared" ref="D7:D19" si="1">TEXT(A7,"mm-dd")</f>
+        <f t="shared" ref="D7:D16" si="1">TEXT(A7,"mm-dd")</f>
         <v>01-15</v>
       </c>
       <c r="J7" s="11"/>
@@ -8762,7 +8772,7 @@
         <v>2020-09-21</v>
       </c>
       <c r="M7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -8788,7 +8798,7 @@
         <v>2020-09-22</v>
       </c>
       <c r="M8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -8814,7 +8824,7 @@
         <v>2020-09-23</v>
       </c>
       <c r="M9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -8840,7 +8850,7 @@
         <v>2020-09-24</v>
       </c>
       <c r="M10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -8866,7 +8876,7 @@
         <v>2020-09-25</v>
       </c>
       <c r="M11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -8895,7 +8905,7 @@
         <v>2020-09-26</v>
       </c>
       <c r="M12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -8924,7 +8934,7 @@
         <v>2020-09-27</v>
       </c>
       <c r="M13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -8950,7 +8960,7 @@
         <v>2020-09-28</v>
       </c>
       <c r="M14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -9895,26 +9905,26 @@
         <v>8</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L1"/>
       <c r="M1"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1">
         <v>27900</v>
@@ -9942,7 +9952,7 @@
         <v>2020-09-16</v>
       </c>
       <c r="M2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -9955,7 +9965,7 @@
         <v>2020-09-17</v>
       </c>
       <c r="M3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -9968,7 +9978,7 @@
         <v>2020-09-18</v>
       </c>
       <c r="M4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -9987,7 +9997,7 @@
         <v>2020-09-19</v>
       </c>
       <c r="M5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -10006,7 +10016,7 @@
         <v>2020-09-20</v>
       </c>
       <c r="M6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -10020,7 +10030,7 @@
         <v>5760</v>
       </c>
       <c r="D7" s="7" t="str">
-        <f t="shared" ref="D7:D20" si="1">TEXT(A7,"mm-dd")</f>
+        <f t="shared" ref="D7:D17" si="1">TEXT(A7,"mm-dd")</f>
         <v>01-22</v>
       </c>
       <c r="J7" s="11"/>
@@ -10032,7 +10042,7 @@
         <v>2020-09-21</v>
       </c>
       <c r="M7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -10058,7 +10068,7 @@
         <v>2020-09-22</v>
       </c>
       <c r="M8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -10084,7 +10094,7 @@
         <v>2020-09-23</v>
       </c>
       <c r="M9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -10110,7 +10120,7 @@
         <v>2020-09-24</v>
       </c>
       <c r="M10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -10136,7 +10146,7 @@
         <v>2020-09-25</v>
       </c>
       <c r="M11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -10165,7 +10175,7 @@
         <v>2020-09-26</v>
       </c>
       <c r="M12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -10194,7 +10204,7 @@
         <v>2020-09-27</v>
       </c>
       <c r="M13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -10220,7 +10230,7 @@
         <v>2020-09-28</v>
       </c>
       <c r="M14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:13">
